--- a/data/hme/transformed/hme_transformed_bulk.xlsx
+++ b/data/hme/transformed/hme_transformed_bulk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -456,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O1274"/>
+  <dimension ref="A1:O1332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -59830,6 +59830,2732 @@
         <v>148</v>
       </c>
     </row>
+    <row r="1275" spans="1:15">
+      <c r="A1275" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1275">
+        <v>208</v>
+      </c>
+      <c r="E1275">
+        <v>28</v>
+      </c>
+      <c r="F1275">
+        <v>2</v>
+      </c>
+      <c r="G1275">
+        <v>28</v>
+      </c>
+      <c r="H1275">
+        <v>2</v>
+      </c>
+      <c r="I1275">
+        <v>0</v>
+      </c>
+      <c r="J1275">
+        <v>0</v>
+      </c>
+      <c r="K1275">
+        <v>0</v>
+      </c>
+      <c r="L1275">
+        <v>0</v>
+      </c>
+      <c r="M1275">
+        <v>44</v>
+      </c>
+      <c r="N1275">
+        <v>47</v>
+      </c>
+      <c r="O1275">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:15">
+      <c r="A1276" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1276">
+        <v>103</v>
+      </c>
+      <c r="E1276">
+        <v>22</v>
+      </c>
+      <c r="F1276">
+        <v>2</v>
+      </c>
+      <c r="G1276">
+        <v>22</v>
+      </c>
+      <c r="H1276">
+        <v>2</v>
+      </c>
+      <c r="I1276">
+        <v>0</v>
+      </c>
+      <c r="J1276">
+        <v>0</v>
+      </c>
+      <c r="K1276">
+        <v>0</v>
+      </c>
+      <c r="L1276">
+        <v>0</v>
+      </c>
+      <c r="M1276">
+        <v>51</v>
+      </c>
+      <c r="N1276">
+        <v>29</v>
+      </c>
+      <c r="O1276">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:15">
+      <c r="A1277" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1277">
+        <v>56</v>
+      </c>
+      <c r="E1277">
+        <v>22</v>
+      </c>
+      <c r="F1277">
+        <v>2</v>
+      </c>
+      <c r="G1277">
+        <v>22</v>
+      </c>
+      <c r="H1277">
+        <v>2</v>
+      </c>
+      <c r="I1277">
+        <v>0</v>
+      </c>
+      <c r="J1277">
+        <v>0</v>
+      </c>
+      <c r="K1277">
+        <v>0</v>
+      </c>
+      <c r="L1277">
+        <v>0</v>
+      </c>
+      <c r="M1277">
+        <v>71</v>
+      </c>
+      <c r="N1277">
+        <v>14</v>
+      </c>
+      <c r="O1277">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:15">
+      <c r="A1278" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1278">
+        <v>12</v>
+      </c>
+      <c r="E1278">
+        <v>28</v>
+      </c>
+      <c r="F1278">
+        <v>3</v>
+      </c>
+      <c r="G1278">
+        <v>28</v>
+      </c>
+      <c r="H1278">
+        <v>3</v>
+      </c>
+      <c r="I1278">
+        <v>0</v>
+      </c>
+      <c r="J1278">
+        <v>0</v>
+      </c>
+      <c r="K1278">
+        <v>0</v>
+      </c>
+      <c r="L1278">
+        <v>0</v>
+      </c>
+      <c r="M1278">
+        <v>76</v>
+      </c>
+      <c r="N1278">
+        <v>32</v>
+      </c>
+      <c r="O1278">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:15">
+      <c r="A1279" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1279">
+        <v>5</v>
+      </c>
+      <c r="E1279">
+        <v>17</v>
+      </c>
+      <c r="F1279">
+        <v>3</v>
+      </c>
+      <c r="G1279">
+        <v>17</v>
+      </c>
+      <c r="H1279">
+        <v>3</v>
+      </c>
+      <c r="I1279">
+        <v>0</v>
+      </c>
+      <c r="J1279">
+        <v>0</v>
+      </c>
+      <c r="K1279">
+        <v>0</v>
+      </c>
+      <c r="L1279">
+        <v>0</v>
+      </c>
+      <c r="M1279">
+        <v>53</v>
+      </c>
+      <c r="N1279">
+        <v>8</v>
+      </c>
+      <c r="O1279">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:15">
+      <c r="A1280" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1280">
+        <v>267</v>
+      </c>
+      <c r="E1280">
+        <v>28</v>
+      </c>
+      <c r="F1280">
+        <v>2</v>
+      </c>
+      <c r="G1280">
+        <v>28</v>
+      </c>
+      <c r="H1280">
+        <v>2</v>
+      </c>
+      <c r="I1280">
+        <v>0</v>
+      </c>
+      <c r="J1280">
+        <v>0</v>
+      </c>
+      <c r="K1280">
+        <v>0</v>
+      </c>
+      <c r="L1280">
+        <v>0</v>
+      </c>
+      <c r="M1280">
+        <v>43</v>
+      </c>
+      <c r="N1280">
+        <v>55</v>
+      </c>
+      <c r="O1280">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:15">
+      <c r="A1281" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1281">
+        <v>115</v>
+      </c>
+      <c r="E1281">
+        <v>27</v>
+      </c>
+      <c r="F1281">
+        <v>2</v>
+      </c>
+      <c r="G1281">
+        <v>27</v>
+      </c>
+      <c r="H1281">
+        <v>2</v>
+      </c>
+      <c r="I1281">
+        <v>0</v>
+      </c>
+      <c r="J1281">
+        <v>0</v>
+      </c>
+      <c r="K1281">
+        <v>0</v>
+      </c>
+      <c r="L1281">
+        <v>0</v>
+      </c>
+      <c r="M1281">
+        <v>45</v>
+      </c>
+      <c r="N1281">
+        <v>35</v>
+      </c>
+      <c r="O1281">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:15">
+      <c r="A1282" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1282">
+        <v>93</v>
+      </c>
+      <c r="E1282">
+        <v>28</v>
+      </c>
+      <c r="F1282">
+        <v>3</v>
+      </c>
+      <c r="G1282">
+        <v>28</v>
+      </c>
+      <c r="H1282">
+        <v>3</v>
+      </c>
+      <c r="I1282">
+        <v>0</v>
+      </c>
+      <c r="J1282">
+        <v>0</v>
+      </c>
+      <c r="K1282">
+        <v>0</v>
+      </c>
+      <c r="L1282">
+        <v>0</v>
+      </c>
+      <c r="M1282">
+        <v>66</v>
+      </c>
+      <c r="N1282">
+        <v>40</v>
+      </c>
+      <c r="O1282">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:15">
+      <c r="A1283" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1283">
+        <v>17</v>
+      </c>
+      <c r="E1283">
+        <v>31</v>
+      </c>
+      <c r="F1283">
+        <v>2</v>
+      </c>
+      <c r="G1283">
+        <v>31</v>
+      </c>
+      <c r="H1283">
+        <v>2</v>
+      </c>
+      <c r="I1283">
+        <v>0</v>
+      </c>
+      <c r="J1283">
+        <v>0</v>
+      </c>
+      <c r="K1283">
+        <v>0</v>
+      </c>
+      <c r="L1283">
+        <v>0</v>
+      </c>
+      <c r="M1283">
+        <v>75</v>
+      </c>
+      <c r="N1283">
+        <v>16</v>
+      </c>
+      <c r="O1283">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:15">
+      <c r="A1284" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1284">
+        <v>248</v>
+      </c>
+      <c r="E1284">
+        <v>26</v>
+      </c>
+      <c r="F1284">
+        <v>3</v>
+      </c>
+      <c r="G1284">
+        <v>26</v>
+      </c>
+      <c r="H1284">
+        <v>3</v>
+      </c>
+      <c r="I1284">
+        <v>0</v>
+      </c>
+      <c r="J1284">
+        <v>0</v>
+      </c>
+      <c r="K1284">
+        <v>0</v>
+      </c>
+      <c r="L1284">
+        <v>0</v>
+      </c>
+      <c r="M1284">
+        <v>48</v>
+      </c>
+      <c r="N1284">
+        <v>70</v>
+      </c>
+      <c r="O1284">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:15">
+      <c r="A1285" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1285">
+        <v>99</v>
+      </c>
+      <c r="E1285">
+        <v>37</v>
+      </c>
+      <c r="F1285">
+        <v>9</v>
+      </c>
+      <c r="G1285">
+        <v>37</v>
+      </c>
+      <c r="H1285">
+        <v>9</v>
+      </c>
+      <c r="I1285">
+        <v>0</v>
+      </c>
+      <c r="J1285">
+        <v>0</v>
+      </c>
+      <c r="K1285">
+        <v>0</v>
+      </c>
+      <c r="L1285">
+        <v>0</v>
+      </c>
+      <c r="M1285">
+        <v>74</v>
+      </c>
+      <c r="N1285">
+        <v>45</v>
+      </c>
+      <c r="O1285">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:15">
+      <c r="A1286" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1286">
+        <v>75</v>
+      </c>
+      <c r="E1286">
+        <v>59</v>
+      </c>
+      <c r="F1286">
+        <v>12</v>
+      </c>
+      <c r="G1286">
+        <v>59</v>
+      </c>
+      <c r="H1286">
+        <v>12</v>
+      </c>
+      <c r="I1286">
+        <v>0</v>
+      </c>
+      <c r="J1286">
+        <v>0</v>
+      </c>
+      <c r="K1286">
+        <v>0</v>
+      </c>
+      <c r="L1286">
+        <v>0</v>
+      </c>
+      <c r="M1286">
+        <v>88</v>
+      </c>
+      <c r="N1286">
+        <v>34</v>
+      </c>
+      <c r="O1286">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:15">
+      <c r="A1287" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1287">
+        <v>19</v>
+      </c>
+      <c r="E1287">
+        <v>51</v>
+      </c>
+      <c r="F1287">
+        <v>2</v>
+      </c>
+      <c r="G1287">
+        <v>51</v>
+      </c>
+      <c r="H1287">
+        <v>2</v>
+      </c>
+      <c r="I1287">
+        <v>0</v>
+      </c>
+      <c r="J1287">
+        <v>0</v>
+      </c>
+      <c r="K1287">
+        <v>0</v>
+      </c>
+      <c r="L1287">
+        <v>0</v>
+      </c>
+      <c r="M1287">
+        <v>115</v>
+      </c>
+      <c r="N1287">
+        <v>26</v>
+      </c>
+      <c r="O1287">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:15">
+      <c r="A1288" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1288">
+        <v>210</v>
+      </c>
+      <c r="E1288">
+        <v>30</v>
+      </c>
+      <c r="F1288">
+        <v>6</v>
+      </c>
+      <c r="G1288">
+        <v>30</v>
+      </c>
+      <c r="H1288">
+        <v>6</v>
+      </c>
+      <c r="I1288">
+        <v>0</v>
+      </c>
+      <c r="J1288">
+        <v>0</v>
+      </c>
+      <c r="K1288">
+        <v>0</v>
+      </c>
+      <c r="L1288">
+        <v>0</v>
+      </c>
+      <c r="M1288">
+        <v>52</v>
+      </c>
+      <c r="N1288">
+        <v>91</v>
+      </c>
+      <c r="O1288">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:15">
+      <c r="A1289" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1289">
+        <v>78</v>
+      </c>
+      <c r="E1289">
+        <v>42</v>
+      </c>
+      <c r="F1289">
+        <v>7</v>
+      </c>
+      <c r="G1289">
+        <v>42</v>
+      </c>
+      <c r="H1289">
+        <v>7</v>
+      </c>
+      <c r="I1289">
+        <v>0</v>
+      </c>
+      <c r="J1289">
+        <v>0</v>
+      </c>
+      <c r="K1289">
+        <v>0</v>
+      </c>
+      <c r="L1289">
+        <v>0</v>
+      </c>
+      <c r="M1289">
+        <v>80</v>
+      </c>
+      <c r="N1289">
+        <v>40</v>
+      </c>
+      <c r="O1289">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:15">
+      <c r="A1290" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1290">
+        <v>45</v>
+      </c>
+      <c r="E1290">
+        <v>58</v>
+      </c>
+      <c r="F1290">
+        <v>7</v>
+      </c>
+      <c r="G1290">
+        <v>58</v>
+      </c>
+      <c r="H1290">
+        <v>7</v>
+      </c>
+      <c r="I1290">
+        <v>0</v>
+      </c>
+      <c r="J1290">
+        <v>0</v>
+      </c>
+      <c r="K1290">
+        <v>0</v>
+      </c>
+      <c r="L1290">
+        <v>0</v>
+      </c>
+      <c r="M1290">
+        <v>92</v>
+      </c>
+      <c r="N1290">
+        <v>32</v>
+      </c>
+      <c r="O1290">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:15">
+      <c r="A1291" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1291">
+        <v>9</v>
+      </c>
+      <c r="E1291">
+        <v>31</v>
+      </c>
+      <c r="F1291">
+        <v>3</v>
+      </c>
+      <c r="G1291">
+        <v>31</v>
+      </c>
+      <c r="H1291">
+        <v>3</v>
+      </c>
+      <c r="I1291">
+        <v>0</v>
+      </c>
+      <c r="J1291">
+        <v>0</v>
+      </c>
+      <c r="K1291">
+        <v>0</v>
+      </c>
+      <c r="L1291">
+        <v>0</v>
+      </c>
+      <c r="M1291">
+        <v>90</v>
+      </c>
+      <c r="N1291">
+        <v>18</v>
+      </c>
+      <c r="O1291">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:15">
+      <c r="A1292" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1292">
+        <v>167</v>
+      </c>
+      <c r="E1292">
+        <v>33</v>
+      </c>
+      <c r="F1292">
+        <v>3</v>
+      </c>
+      <c r="G1292">
+        <v>33</v>
+      </c>
+      <c r="H1292">
+        <v>3</v>
+      </c>
+      <c r="I1292">
+        <v>0</v>
+      </c>
+      <c r="J1292">
+        <v>0</v>
+      </c>
+      <c r="K1292">
+        <v>0</v>
+      </c>
+      <c r="L1292">
+        <v>0</v>
+      </c>
+      <c r="M1292">
+        <v>51</v>
+      </c>
+      <c r="N1292">
+        <v>40</v>
+      </c>
+      <c r="O1292">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:15">
+      <c r="A1293" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1293">
+        <v>50</v>
+      </c>
+      <c r="E1293">
+        <v>37</v>
+      </c>
+      <c r="F1293">
+        <v>3</v>
+      </c>
+      <c r="G1293">
+        <v>37</v>
+      </c>
+      <c r="H1293">
+        <v>3</v>
+      </c>
+      <c r="I1293">
+        <v>0</v>
+      </c>
+      <c r="J1293">
+        <v>0</v>
+      </c>
+      <c r="K1293">
+        <v>0</v>
+      </c>
+      <c r="L1293">
+        <v>0</v>
+      </c>
+      <c r="M1293">
+        <v>88</v>
+      </c>
+      <c r="N1293">
+        <v>28</v>
+      </c>
+      <c r="O1293">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:15">
+      <c r="A1294" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1294">
+        <v>39</v>
+      </c>
+      <c r="E1294">
+        <v>48</v>
+      </c>
+      <c r="F1294">
+        <v>5</v>
+      </c>
+      <c r="G1294">
+        <v>48</v>
+      </c>
+      <c r="H1294">
+        <v>5</v>
+      </c>
+      <c r="I1294">
+        <v>0</v>
+      </c>
+      <c r="J1294">
+        <v>0</v>
+      </c>
+      <c r="K1294">
+        <v>0</v>
+      </c>
+      <c r="L1294">
+        <v>0</v>
+      </c>
+      <c r="M1294">
+        <v>126</v>
+      </c>
+      <c r="N1294">
+        <v>36</v>
+      </c>
+      <c r="O1294">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:15">
+      <c r="A1295" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1295">
+        <v>8</v>
+      </c>
+      <c r="E1295">
+        <v>61</v>
+      </c>
+      <c r="F1295">
+        <v>6</v>
+      </c>
+      <c r="G1295">
+        <v>61</v>
+      </c>
+      <c r="H1295">
+        <v>6</v>
+      </c>
+      <c r="I1295">
+        <v>0</v>
+      </c>
+      <c r="J1295">
+        <v>0</v>
+      </c>
+      <c r="K1295">
+        <v>0</v>
+      </c>
+      <c r="L1295">
+        <v>0</v>
+      </c>
+      <c r="M1295">
+        <v>210</v>
+      </c>
+      <c r="N1295">
+        <v>11</v>
+      </c>
+      <c r="O1295">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:15">
+      <c r="A1296" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1296">
+        <v>225</v>
+      </c>
+      <c r="E1296">
+        <v>26</v>
+      </c>
+      <c r="F1296">
+        <v>2</v>
+      </c>
+      <c r="G1296">
+        <v>0</v>
+      </c>
+      <c r="H1296">
+        <v>0</v>
+      </c>
+      <c r="I1296">
+        <v>26</v>
+      </c>
+      <c r="J1296">
+        <v>2</v>
+      </c>
+      <c r="K1296">
+        <v>0</v>
+      </c>
+      <c r="L1296">
+        <v>0</v>
+      </c>
+      <c r="M1296">
+        <v>48</v>
+      </c>
+      <c r="N1296">
+        <v>50</v>
+      </c>
+      <c r="O1296">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:15">
+      <c r="A1297" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1297">
+        <v>71</v>
+      </c>
+      <c r="E1297">
+        <v>34</v>
+      </c>
+      <c r="F1297">
+        <v>3</v>
+      </c>
+      <c r="G1297">
+        <v>0</v>
+      </c>
+      <c r="H1297">
+        <v>0</v>
+      </c>
+      <c r="I1297">
+        <v>34</v>
+      </c>
+      <c r="J1297">
+        <v>3</v>
+      </c>
+      <c r="K1297">
+        <v>0</v>
+      </c>
+      <c r="L1297">
+        <v>0</v>
+      </c>
+      <c r="M1297">
+        <v>97</v>
+      </c>
+      <c r="N1297">
+        <v>98</v>
+      </c>
+      <c r="O1297">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:15">
+      <c r="A1298" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1298">
+        <v>55</v>
+      </c>
+      <c r="E1298">
+        <v>36</v>
+      </c>
+      <c r="F1298">
+        <v>3</v>
+      </c>
+      <c r="G1298">
+        <v>0</v>
+      </c>
+      <c r="H1298">
+        <v>0</v>
+      </c>
+      <c r="I1298">
+        <v>36</v>
+      </c>
+      <c r="J1298">
+        <v>3</v>
+      </c>
+      <c r="K1298">
+        <v>0</v>
+      </c>
+      <c r="L1298">
+        <v>0</v>
+      </c>
+      <c r="M1298">
+        <v>75</v>
+      </c>
+      <c r="N1298">
+        <v>28</v>
+      </c>
+      <c r="O1298">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:15">
+      <c r="A1299" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1299">
+        <v>12</v>
+      </c>
+      <c r="E1299">
+        <v>27</v>
+      </c>
+      <c r="F1299">
+        <v>2</v>
+      </c>
+      <c r="G1299">
+        <v>0</v>
+      </c>
+      <c r="H1299">
+        <v>0</v>
+      </c>
+      <c r="I1299">
+        <v>27</v>
+      </c>
+      <c r="J1299">
+        <v>2</v>
+      </c>
+      <c r="K1299">
+        <v>0</v>
+      </c>
+      <c r="L1299">
+        <v>0</v>
+      </c>
+      <c r="M1299">
+        <v>68</v>
+      </c>
+      <c r="N1299">
+        <v>9</v>
+      </c>
+      <c r="O1299">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:15">
+      <c r="A1300" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1300">
+        <v>223</v>
+      </c>
+      <c r="E1300">
+        <v>27</v>
+      </c>
+      <c r="F1300">
+        <v>2</v>
+      </c>
+      <c r="G1300">
+        <v>27</v>
+      </c>
+      <c r="H1300">
+        <v>2</v>
+      </c>
+      <c r="I1300">
+        <v>0</v>
+      </c>
+      <c r="J1300">
+        <v>0</v>
+      </c>
+      <c r="K1300">
+        <v>0</v>
+      </c>
+      <c r="L1300">
+        <v>0</v>
+      </c>
+      <c r="M1300">
+        <v>46</v>
+      </c>
+      <c r="N1300">
+        <v>52</v>
+      </c>
+      <c r="O1300">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:15">
+      <c r="A1301" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1301">
+        <v>98</v>
+      </c>
+      <c r="E1301">
+        <v>28</v>
+      </c>
+      <c r="F1301">
+        <v>2</v>
+      </c>
+      <c r="G1301">
+        <v>28</v>
+      </c>
+      <c r="H1301">
+        <v>2</v>
+      </c>
+      <c r="I1301">
+        <v>0</v>
+      </c>
+      <c r="J1301">
+        <v>0</v>
+      </c>
+      <c r="K1301">
+        <v>0</v>
+      </c>
+      <c r="L1301">
+        <v>0</v>
+      </c>
+      <c r="M1301">
+        <v>58</v>
+      </c>
+      <c r="N1301">
+        <v>34</v>
+      </c>
+      <c r="O1301">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:15">
+      <c r="A1302" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1302">
+        <v>75</v>
+      </c>
+      <c r="E1302">
+        <v>43</v>
+      </c>
+      <c r="F1302">
+        <v>3</v>
+      </c>
+      <c r="G1302">
+        <v>43</v>
+      </c>
+      <c r="H1302">
+        <v>3</v>
+      </c>
+      <c r="I1302">
+        <v>0</v>
+      </c>
+      <c r="J1302">
+        <v>0</v>
+      </c>
+      <c r="K1302">
+        <v>0</v>
+      </c>
+      <c r="L1302">
+        <v>0</v>
+      </c>
+      <c r="M1302">
+        <v>97</v>
+      </c>
+      <c r="N1302">
+        <v>56</v>
+      </c>
+      <c r="O1302">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:15">
+      <c r="A1303" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1303">
+        <v>14</v>
+      </c>
+      <c r="E1303">
+        <v>23</v>
+      </c>
+      <c r="F1303">
+        <v>3</v>
+      </c>
+      <c r="G1303">
+        <v>23</v>
+      </c>
+      <c r="H1303">
+        <v>3</v>
+      </c>
+      <c r="I1303">
+        <v>0</v>
+      </c>
+      <c r="J1303">
+        <v>0</v>
+      </c>
+      <c r="K1303">
+        <v>0</v>
+      </c>
+      <c r="L1303">
+        <v>0</v>
+      </c>
+      <c r="M1303">
+        <v>107</v>
+      </c>
+      <c r="N1303">
+        <v>20</v>
+      </c>
+      <c r="O1303">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:15">
+      <c r="A1304" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1304">
+        <v>212</v>
+      </c>
+      <c r="E1304">
+        <v>33</v>
+      </c>
+      <c r="F1304">
+        <v>6</v>
+      </c>
+      <c r="G1304">
+        <v>33</v>
+      </c>
+      <c r="H1304">
+        <v>6</v>
+      </c>
+      <c r="I1304">
+        <v>0</v>
+      </c>
+      <c r="J1304">
+        <v>0</v>
+      </c>
+      <c r="K1304">
+        <v>0</v>
+      </c>
+      <c r="L1304">
+        <v>0</v>
+      </c>
+      <c r="M1304">
+        <v>47</v>
+      </c>
+      <c r="N1304">
+        <v>47</v>
+      </c>
+      <c r="O1304">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:15">
+      <c r="A1305" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1305">
+        <v>110</v>
+      </c>
+      <c r="E1305">
+        <v>33</v>
+      </c>
+      <c r="F1305">
+        <v>3</v>
+      </c>
+      <c r="G1305">
+        <v>33</v>
+      </c>
+      <c r="H1305">
+        <v>3</v>
+      </c>
+      <c r="I1305">
+        <v>0</v>
+      </c>
+      <c r="J1305">
+        <v>0</v>
+      </c>
+      <c r="K1305">
+        <v>0</v>
+      </c>
+      <c r="L1305">
+        <v>0</v>
+      </c>
+      <c r="M1305">
+        <v>65</v>
+      </c>
+      <c r="N1305">
+        <v>37</v>
+      </c>
+      <c r="O1305">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:15">
+      <c r="A1306" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1306">
+        <v>65</v>
+      </c>
+      <c r="E1306">
+        <v>38</v>
+      </c>
+      <c r="F1306">
+        <v>3</v>
+      </c>
+      <c r="G1306">
+        <v>38</v>
+      </c>
+      <c r="H1306">
+        <v>3</v>
+      </c>
+      <c r="I1306">
+        <v>0</v>
+      </c>
+      <c r="J1306">
+        <v>0</v>
+      </c>
+      <c r="K1306">
+        <v>0</v>
+      </c>
+      <c r="L1306">
+        <v>0</v>
+      </c>
+      <c r="M1306">
+        <v>97</v>
+      </c>
+      <c r="N1306">
+        <v>72</v>
+      </c>
+      <c r="O1306">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:15">
+      <c r="A1307" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1307">
+        <v>14</v>
+      </c>
+      <c r="E1307">
+        <v>34</v>
+      </c>
+      <c r="F1307">
+        <v>3</v>
+      </c>
+      <c r="G1307">
+        <v>34</v>
+      </c>
+      <c r="H1307">
+        <v>3</v>
+      </c>
+      <c r="I1307">
+        <v>0</v>
+      </c>
+      <c r="J1307">
+        <v>0</v>
+      </c>
+      <c r="K1307">
+        <v>0</v>
+      </c>
+      <c r="L1307">
+        <v>0</v>
+      </c>
+      <c r="M1307">
+        <v>117</v>
+      </c>
+      <c r="N1307">
+        <v>26</v>
+      </c>
+      <c r="O1307">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:15">
+      <c r="A1308" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1308">
+        <v>5</v>
+      </c>
+      <c r="E1308">
+        <v>27</v>
+      </c>
+      <c r="F1308">
+        <v>6</v>
+      </c>
+      <c r="G1308">
+        <v>27</v>
+      </c>
+      <c r="H1308">
+        <v>6</v>
+      </c>
+      <c r="I1308">
+        <v>0</v>
+      </c>
+      <c r="J1308">
+        <v>0</v>
+      </c>
+      <c r="K1308">
+        <v>0</v>
+      </c>
+      <c r="L1308">
+        <v>0</v>
+      </c>
+      <c r="M1308">
+        <v>89</v>
+      </c>
+      <c r="N1308">
+        <v>21</v>
+      </c>
+      <c r="O1308">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:15">
+      <c r="A1309" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1309">
+        <v>320</v>
+      </c>
+      <c r="E1309">
+        <v>27</v>
+      </c>
+      <c r="F1309">
+        <v>2</v>
+      </c>
+      <c r="G1309">
+        <v>27</v>
+      </c>
+      <c r="H1309">
+        <v>2</v>
+      </c>
+      <c r="I1309">
+        <v>0</v>
+      </c>
+      <c r="J1309">
+        <v>0</v>
+      </c>
+      <c r="K1309">
+        <v>0</v>
+      </c>
+      <c r="L1309">
+        <v>0</v>
+      </c>
+      <c r="M1309">
+        <v>36</v>
+      </c>
+      <c r="N1309">
+        <v>64</v>
+      </c>
+      <c r="O1309">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:15">
+      <c r="A1310" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1310">
+        <v>143</v>
+      </c>
+      <c r="E1310">
+        <v>36</v>
+      </c>
+      <c r="F1310">
+        <v>5</v>
+      </c>
+      <c r="G1310">
+        <v>36</v>
+      </c>
+      <c r="H1310">
+        <v>5</v>
+      </c>
+      <c r="I1310">
+        <v>0</v>
+      </c>
+      <c r="J1310">
+        <v>0</v>
+      </c>
+      <c r="K1310">
+        <v>0</v>
+      </c>
+      <c r="L1310">
+        <v>0</v>
+      </c>
+      <c r="M1310">
+        <v>53</v>
+      </c>
+      <c r="N1310">
+        <v>40</v>
+      </c>
+      <c r="O1310">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:15">
+      <c r="A1311" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1311">
+        <v>116</v>
+      </c>
+      <c r="E1311">
+        <v>34</v>
+      </c>
+      <c r="F1311">
+        <v>3</v>
+      </c>
+      <c r="G1311">
+        <v>34</v>
+      </c>
+      <c r="H1311">
+        <v>3</v>
+      </c>
+      <c r="I1311">
+        <v>0</v>
+      </c>
+      <c r="J1311">
+        <v>0</v>
+      </c>
+      <c r="K1311">
+        <v>0</v>
+      </c>
+      <c r="L1311">
+        <v>0</v>
+      </c>
+      <c r="M1311">
+        <v>73</v>
+      </c>
+      <c r="N1311">
+        <v>61</v>
+      </c>
+      <c r="O1311">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:15">
+      <c r="A1312" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1312">
+        <v>21</v>
+      </c>
+      <c r="E1312">
+        <v>34</v>
+      </c>
+      <c r="F1312">
+        <v>3</v>
+      </c>
+      <c r="G1312">
+        <v>34</v>
+      </c>
+      <c r="H1312">
+        <v>3</v>
+      </c>
+      <c r="I1312">
+        <v>0</v>
+      </c>
+      <c r="J1312">
+        <v>0</v>
+      </c>
+      <c r="K1312">
+        <v>0</v>
+      </c>
+      <c r="L1312">
+        <v>0</v>
+      </c>
+      <c r="M1312">
+        <v>66</v>
+      </c>
+      <c r="N1312">
+        <v>17</v>
+      </c>
+      <c r="O1312">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:15">
+      <c r="A1313" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1313">
+        <v>287</v>
+      </c>
+      <c r="E1313">
+        <v>30</v>
+      </c>
+      <c r="F1313">
+        <v>4</v>
+      </c>
+      <c r="G1313">
+        <v>30</v>
+      </c>
+      <c r="H1313">
+        <v>4</v>
+      </c>
+      <c r="I1313">
+        <v>0</v>
+      </c>
+      <c r="J1313">
+        <v>0</v>
+      </c>
+      <c r="K1313">
+        <v>0</v>
+      </c>
+      <c r="L1313">
+        <v>0</v>
+      </c>
+      <c r="M1313">
+        <v>51</v>
+      </c>
+      <c r="N1313">
+        <v>86</v>
+      </c>
+      <c r="O1313">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:15">
+      <c r="A1314" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1314">
+        <v>96</v>
+      </c>
+      <c r="E1314">
+        <v>47</v>
+      </c>
+      <c r="F1314">
+        <v>14</v>
+      </c>
+      <c r="G1314">
+        <v>47</v>
+      </c>
+      <c r="H1314">
+        <v>14</v>
+      </c>
+      <c r="I1314">
+        <v>0</v>
+      </c>
+      <c r="J1314">
+        <v>0</v>
+      </c>
+      <c r="K1314">
+        <v>0</v>
+      </c>
+      <c r="L1314">
+        <v>0</v>
+      </c>
+      <c r="M1314">
+        <v>77</v>
+      </c>
+      <c r="N1314">
+        <v>54</v>
+      </c>
+      <c r="O1314">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:15">
+      <c r="A1315" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1315">
+        <v>83</v>
+      </c>
+      <c r="E1315">
+        <v>49</v>
+      </c>
+      <c r="F1315">
+        <v>12</v>
+      </c>
+      <c r="G1315">
+        <v>49</v>
+      </c>
+      <c r="H1315">
+        <v>12</v>
+      </c>
+      <c r="I1315">
+        <v>0</v>
+      </c>
+      <c r="J1315">
+        <v>0</v>
+      </c>
+      <c r="K1315">
+        <v>0</v>
+      </c>
+      <c r="L1315">
+        <v>0</v>
+      </c>
+      <c r="M1315">
+        <v>92</v>
+      </c>
+      <c r="N1315">
+        <v>67</v>
+      </c>
+      <c r="O1315">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:15">
+      <c r="A1316" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1316">
+        <v>22</v>
+      </c>
+      <c r="E1316">
+        <v>50</v>
+      </c>
+      <c r="F1316">
+        <v>4</v>
+      </c>
+      <c r="G1316">
+        <v>50</v>
+      </c>
+      <c r="H1316">
+        <v>4</v>
+      </c>
+      <c r="I1316">
+        <v>0</v>
+      </c>
+      <c r="J1316">
+        <v>0</v>
+      </c>
+      <c r="K1316">
+        <v>0</v>
+      </c>
+      <c r="L1316">
+        <v>0</v>
+      </c>
+      <c r="M1316">
+        <v>102</v>
+      </c>
+      <c r="N1316">
+        <v>28</v>
+      </c>
+      <c r="O1316">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:15">
+      <c r="A1317" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1317">
+        <v>257</v>
+      </c>
+      <c r="E1317">
+        <v>26</v>
+      </c>
+      <c r="F1317">
+        <v>2</v>
+      </c>
+      <c r="G1317">
+        <v>26</v>
+      </c>
+      <c r="H1317">
+        <v>2</v>
+      </c>
+      <c r="I1317">
+        <v>0</v>
+      </c>
+      <c r="J1317">
+        <v>0</v>
+      </c>
+      <c r="K1317">
+        <v>0</v>
+      </c>
+      <c r="L1317">
+        <v>0</v>
+      </c>
+      <c r="M1317">
+        <v>46</v>
+      </c>
+      <c r="N1317">
+        <v>99</v>
+      </c>
+      <c r="O1317">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:15">
+      <c r="A1318" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1318">
+        <v>101</v>
+      </c>
+      <c r="E1318">
+        <v>35</v>
+      </c>
+      <c r="F1318">
+        <v>3</v>
+      </c>
+      <c r="G1318">
+        <v>35</v>
+      </c>
+      <c r="H1318">
+        <v>3</v>
+      </c>
+      <c r="I1318">
+        <v>0</v>
+      </c>
+      <c r="J1318">
+        <v>0</v>
+      </c>
+      <c r="K1318">
+        <v>0</v>
+      </c>
+      <c r="L1318">
+        <v>0</v>
+      </c>
+      <c r="M1318">
+        <v>69</v>
+      </c>
+      <c r="N1318">
+        <v>51</v>
+      </c>
+      <c r="O1318">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:15">
+      <c r="A1319" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1319">
+        <v>66</v>
+      </c>
+      <c r="E1319">
+        <v>78</v>
+      </c>
+      <c r="F1319">
+        <v>8</v>
+      </c>
+      <c r="G1319">
+        <v>78</v>
+      </c>
+      <c r="H1319">
+        <v>8</v>
+      </c>
+      <c r="I1319">
+        <v>0</v>
+      </c>
+      <c r="J1319">
+        <v>0</v>
+      </c>
+      <c r="K1319">
+        <v>0</v>
+      </c>
+      <c r="L1319">
+        <v>0</v>
+      </c>
+      <c r="M1319">
+        <v>111</v>
+      </c>
+      <c r="N1319">
+        <v>54</v>
+      </c>
+      <c r="O1319">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:15">
+      <c r="A1320" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1320">
+        <v>10</v>
+      </c>
+      <c r="E1320">
+        <v>41</v>
+      </c>
+      <c r="F1320">
+        <v>4</v>
+      </c>
+      <c r="G1320">
+        <v>41</v>
+      </c>
+      <c r="H1320">
+        <v>4</v>
+      </c>
+      <c r="I1320">
+        <v>0</v>
+      </c>
+      <c r="J1320">
+        <v>0</v>
+      </c>
+      <c r="K1320">
+        <v>0</v>
+      </c>
+      <c r="L1320">
+        <v>0</v>
+      </c>
+      <c r="M1320">
+        <v>119</v>
+      </c>
+      <c r="N1320">
+        <v>28</v>
+      </c>
+      <c r="O1320">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:15">
+      <c r="A1321" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1321">
+        <v>182</v>
+      </c>
+      <c r="E1321">
+        <v>35</v>
+      </c>
+      <c r="F1321">
+        <v>3</v>
+      </c>
+      <c r="G1321">
+        <v>35</v>
+      </c>
+      <c r="H1321">
+        <v>3</v>
+      </c>
+      <c r="I1321">
+        <v>0</v>
+      </c>
+      <c r="J1321">
+        <v>0</v>
+      </c>
+      <c r="K1321">
+        <v>0</v>
+      </c>
+      <c r="L1321">
+        <v>0</v>
+      </c>
+      <c r="M1321">
+        <v>59</v>
+      </c>
+      <c r="N1321">
+        <v>86</v>
+      </c>
+      <c r="O1321">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:15">
+      <c r="A1322" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1322">
+        <v>84</v>
+      </c>
+      <c r="E1322">
+        <v>46</v>
+      </c>
+      <c r="F1322">
+        <v>2</v>
+      </c>
+      <c r="G1322">
+        <v>46</v>
+      </c>
+      <c r="H1322">
+        <v>2</v>
+      </c>
+      <c r="I1322">
+        <v>0</v>
+      </c>
+      <c r="J1322">
+        <v>0</v>
+      </c>
+      <c r="K1322">
+        <v>0</v>
+      </c>
+      <c r="L1322">
+        <v>0</v>
+      </c>
+      <c r="M1322">
+        <v>79</v>
+      </c>
+      <c r="N1322">
+        <v>42</v>
+      </c>
+      <c r="O1322">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:15">
+      <c r="A1323" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1323">
+        <v>42</v>
+      </c>
+      <c r="E1323">
+        <v>44</v>
+      </c>
+      <c r="F1323">
+        <v>3</v>
+      </c>
+      <c r="G1323">
+        <v>44</v>
+      </c>
+      <c r="H1323">
+        <v>3</v>
+      </c>
+      <c r="I1323">
+        <v>0</v>
+      </c>
+      <c r="J1323">
+        <v>0</v>
+      </c>
+      <c r="K1323">
+        <v>0</v>
+      </c>
+      <c r="L1323">
+        <v>0</v>
+      </c>
+      <c r="M1323">
+        <v>90</v>
+      </c>
+      <c r="N1323">
+        <v>40</v>
+      </c>
+      <c r="O1323">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:15">
+      <c r="A1324" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1324">
+        <v>8</v>
+      </c>
+      <c r="E1324">
+        <v>78</v>
+      </c>
+      <c r="F1324">
+        <v>6</v>
+      </c>
+      <c r="G1324">
+        <v>78</v>
+      </c>
+      <c r="H1324">
+        <v>6</v>
+      </c>
+      <c r="I1324">
+        <v>0</v>
+      </c>
+      <c r="J1324">
+        <v>0</v>
+      </c>
+      <c r="K1324">
+        <v>0</v>
+      </c>
+      <c r="L1324">
+        <v>0</v>
+      </c>
+      <c r="M1324">
+        <v>180</v>
+      </c>
+      <c r="N1324">
+        <v>16</v>
+      </c>
+      <c r="O1324">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:15">
+      <c r="A1325" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1325">
+        <v>241</v>
+      </c>
+      <c r="E1325">
+        <v>32</v>
+      </c>
+      <c r="F1325">
+        <v>3</v>
+      </c>
+      <c r="G1325">
+        <v>0</v>
+      </c>
+      <c r="H1325">
+        <v>0</v>
+      </c>
+      <c r="I1325">
+        <v>32</v>
+      </c>
+      <c r="J1325">
+        <v>3</v>
+      </c>
+      <c r="K1325">
+        <v>0</v>
+      </c>
+      <c r="L1325">
+        <v>0</v>
+      </c>
+      <c r="M1325">
+        <v>50</v>
+      </c>
+      <c r="N1325">
+        <v>77</v>
+      </c>
+      <c r="O1325">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:15">
+      <c r="A1326" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1326">
+        <v>92</v>
+      </c>
+      <c r="E1326">
+        <v>35</v>
+      </c>
+      <c r="F1326">
+        <v>3</v>
+      </c>
+      <c r="G1326">
+        <v>0</v>
+      </c>
+      <c r="H1326">
+        <v>0</v>
+      </c>
+      <c r="I1326">
+        <v>35</v>
+      </c>
+      <c r="J1326">
+        <v>3</v>
+      </c>
+      <c r="K1326">
+        <v>1</v>
+      </c>
+      <c r="L1326">
+        <v>1</v>
+      </c>
+      <c r="M1326">
+        <v>81</v>
+      </c>
+      <c r="N1326">
+        <v>72</v>
+      </c>
+      <c r="O1326">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:15">
+      <c r="A1327" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1327">
+        <v>66</v>
+      </c>
+      <c r="E1327">
+        <v>37</v>
+      </c>
+      <c r="F1327">
+        <v>4</v>
+      </c>
+      <c r="G1327">
+        <v>0</v>
+      </c>
+      <c r="H1327">
+        <v>0</v>
+      </c>
+      <c r="I1327">
+        <v>37</v>
+      </c>
+      <c r="J1327">
+        <v>4</v>
+      </c>
+      <c r="K1327">
+        <v>0</v>
+      </c>
+      <c r="L1327">
+        <v>1</v>
+      </c>
+      <c r="M1327">
+        <v>66</v>
+      </c>
+      <c r="N1327">
+        <v>22</v>
+      </c>
+      <c r="O1327">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:15">
+      <c r="A1328" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1328">
+        <v>19</v>
+      </c>
+      <c r="E1328">
+        <v>26</v>
+      </c>
+      <c r="F1328">
+        <v>2</v>
+      </c>
+      <c r="G1328">
+        <v>0</v>
+      </c>
+      <c r="H1328">
+        <v>0</v>
+      </c>
+      <c r="I1328">
+        <v>26</v>
+      </c>
+      <c r="J1328">
+        <v>2</v>
+      </c>
+      <c r="K1328">
+        <v>0</v>
+      </c>
+      <c r="L1328">
+        <v>0</v>
+      </c>
+      <c r="M1328">
+        <v>65</v>
+      </c>
+      <c r="N1328">
+        <v>11</v>
+      </c>
+      <c r="O1328">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:15">
+      <c r="A1329" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1329">
+        <v>257</v>
+      </c>
+      <c r="E1329">
+        <v>33</v>
+      </c>
+      <c r="F1329">
+        <v>3</v>
+      </c>
+      <c r="G1329">
+        <v>33</v>
+      </c>
+      <c r="H1329">
+        <v>3</v>
+      </c>
+      <c r="I1329">
+        <v>0</v>
+      </c>
+      <c r="J1329">
+        <v>0</v>
+      </c>
+      <c r="K1329">
+        <v>0</v>
+      </c>
+      <c r="L1329">
+        <v>0</v>
+      </c>
+      <c r="M1329">
+        <v>50</v>
+      </c>
+      <c r="N1329">
+        <v>77</v>
+      </c>
+      <c r="O1329">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:15">
+      <c r="A1330" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1330">
+        <v>111</v>
+      </c>
+      <c r="E1330">
+        <v>39</v>
+      </c>
+      <c r="F1330">
+        <v>4</v>
+      </c>
+      <c r="G1330">
+        <v>39</v>
+      </c>
+      <c r="H1330">
+        <v>4</v>
+      </c>
+      <c r="I1330">
+        <v>0</v>
+      </c>
+      <c r="J1330">
+        <v>0</v>
+      </c>
+      <c r="K1330">
+        <v>0</v>
+      </c>
+      <c r="L1330">
+        <v>0</v>
+      </c>
+      <c r="M1330">
+        <v>60</v>
+      </c>
+      <c r="N1330">
+        <v>41</v>
+      </c>
+      <c r="O1330">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:15">
+      <c r="A1331" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1331">
+        <v>73</v>
+      </c>
+      <c r="E1331">
+        <v>45</v>
+      </c>
+      <c r="F1331">
+        <v>5</v>
+      </c>
+      <c r="G1331">
+        <v>45</v>
+      </c>
+      <c r="H1331">
+        <v>5</v>
+      </c>
+      <c r="I1331">
+        <v>0</v>
+      </c>
+      <c r="J1331">
+        <v>0</v>
+      </c>
+      <c r="K1331">
+        <v>0</v>
+      </c>
+      <c r="L1331">
+        <v>0</v>
+      </c>
+      <c r="M1331">
+        <v>76</v>
+      </c>
+      <c r="N1331">
+        <v>39</v>
+      </c>
+      <c r="O1331">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:15">
+      <c r="A1332" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1332">
+        <v>14</v>
+      </c>
+      <c r="E1332">
+        <v>35</v>
+      </c>
+      <c r="F1332">
+        <v>7</v>
+      </c>
+      <c r="G1332">
+        <v>35</v>
+      </c>
+      <c r="H1332">
+        <v>7</v>
+      </c>
+      <c r="I1332">
+        <v>0</v>
+      </c>
+      <c r="J1332">
+        <v>0</v>
+      </c>
+      <c r="K1332">
+        <v>0</v>
+      </c>
+      <c r="L1332">
+        <v>0</v>
+      </c>
+      <c r="M1332">
+        <v>82</v>
+      </c>
+      <c r="N1332">
+        <v>10</v>
+      </c>
+      <c r="O1332">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
